--- a/RESULT/aws_full_data_validation_results.xlsx
+++ b/RESULT/aws_full_data_validation_results.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:09</t>
+          <t>2024-06-20 18:31:26</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:13</t>
+          <t>2024-06-20 18:31:30</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:16</t>
+          <t>2024-06-20 18:31:33</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:20</t>
+          <t>2024-06-20 18:31:37</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:24</t>
+          <t>2024-06-20 18:31:40</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:28</t>
+          <t>2024-06-20 18:31:44</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:32</t>
+          <t>2024-06-20 18:31:47</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:35</t>
+          <t>2024-06-20 18:31:51</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:39</t>
+          <t>2024-06-20 18:31:54</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:43</t>
+          <t>2024-06-20 18:31:57</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:46</t>
+          <t>2024-06-20 18:32:01</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:53</t>
+          <t>2024-06-20 18:32:08</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-06-20 16:43:57</t>
+          <t>2024-06-20 18:32:12</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-06-20 16:44:48</t>
+          <t>2024-06-20 18:33:00</t>
         </is>
       </c>
     </row>

--- a/RESULT/aws_full_data_validation_results.xlsx
+++ b/RESULT/aws_full_data_validation_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infoblox-my.sharepoint.com/personal/kkrishna_infoblox_com/Documents/hackthon-2024/Project/code-hackathon-2024/RESULT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infoblox-my.sharepoint.com/personal/kkrishna_infoblox_com/Documents/hackthon-2024/Project/data_dreamer_24-jun/data_dreamers/RESULT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_B28DAF5846E596812043F2203A2A8EE1A8075041" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7770F616-7F5F-6C43-A57F-8DA14A56E41F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_9A226D70885E04986B66DC394533AE9125654F9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08B280B-C4AD-7B4A-901C-CA766BE2B1A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="30120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51700" yWindow="1940" windowWidth="33580" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Null Check Results" sheetId="1" r:id="rId1"/>
@@ -54,19 +54,19 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>2024-06-20 22:28:49</t>
+    <t>2024-06-24 12:41:04</t>
   </si>
   <si>
     <t>salary</t>
   </si>
   <si>
-    <t>2024-06-20 22:28:52</t>
+    <t>2024-06-24 12:41:07</t>
   </si>
   <si>
     <t>employee_id</t>
   </si>
   <si>
-    <t>2024-06-20 22:28:56</t>
+    <t>2024-06-24 12:41:11</t>
   </si>
   <si>
     <t>manager_id</t>
@@ -75,85 +75,85 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:00</t>
+    <t>2024-06-24 12:41:14</t>
   </si>
   <si>
     <t>commission_pct</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:04</t>
+    <t>2024-06-24 12:41:18</t>
   </si>
   <si>
     <t>job_id</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:08</t>
+    <t>2024-06-24 12:41:21</t>
   </si>
   <si>
     <t>hire_date</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:11</t>
+    <t>2024-06-24 12:41:25</t>
   </si>
   <si>
     <t>phone_number</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:15</t>
+    <t>2024-06-24 12:41:28</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:19</t>
+    <t>2024-06-24 12:41:32</t>
   </si>
   <si>
     <t>last_name</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:23</t>
+    <t>2024-06-24 12:41:35</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:26</t>
+    <t>2024-06-24 12:41:39</t>
   </si>
   <si>
     <t>employee</t>
   </si>
   <si>
-    <t>2024-06-20 22:29:34</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:29:38</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:29:43</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:29:46</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:29:50</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:29:54</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:29:58</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:30:02</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:30:06</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:30:10</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:30:14</t>
+    <t>2024-06-24 12:41:46</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:41:50</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:41:53</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:41:57</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:04</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:08</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:11</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:15</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:18</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:22</t>
   </si>
   <si>
     <t>key_column</t>
@@ -165,10 +165,10 @@
     <t>number_of_duplicates</t>
   </si>
   <si>
-    <t>2024-06-20 22:30:18</t>
-  </si>
-  <si>
-    <t>2024-06-20 22:30:22</t>
+    <t>2024-06-24 12:42:30</t>
+  </si>
+  <si>
+    <t>2024-06-24 12:42:34</t>
   </si>
   <si>
     <t>source</t>
@@ -198,7 +198,7 @@
     <t>edw_test.emp</t>
   </si>
   <si>
-    <t>2024-06-20 22:31:25</t>
+    <t>2024-06-24 12:43:28</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="213" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1047,18 +1047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="270" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1120,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
